--- a/Jogos_do_Dia/2023-03-03_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-03_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -1146,16 +1146,16 @@
         <v>4.87</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="M3">
         <v>2.15</v>
@@ -1176,13 +1176,13 @@
         <v>1.67</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="V3">
         <v>1</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         <v>124</v>
       </c>
       <c r="F4">
-        <v>2.95</v>
+        <v>3.75</v>
       </c>
       <c r="G4">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="H4">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="I4">
         <v>1.02</v>
@@ -1345,13 +1345,13 @@
         <v>125</v>
       </c>
       <c r="F5">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="G5">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="H5">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I5">
         <v>1.03</v>
@@ -1449,13 +1449,13 @@
         <v>126</v>
       </c>
       <c r="F6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I6">
         <v>1.07</v>
@@ -1470,10 +1470,10 @@
         <v>2.63</v>
       </c>
       <c r="M6">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="N6">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O6">
         <v>1.51</v>
@@ -1512,28 +1512,28 @@
         <v>2.71</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1553,13 +1553,13 @@
         <v>127</v>
       </c>
       <c r="F7">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G7">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H7">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="I7">
         <v>1.06</v>
@@ -1574,10 +1574,10 @@
         <v>3.4</v>
       </c>
       <c r="M7">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="N7">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="O7">
         <v>1.36</v>
@@ -1761,13 +1761,13 @@
         <v>129</v>
       </c>
       <c r="F9">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="G9">
-        <v>3.88</v>
+        <v>3.5</v>
       </c>
       <c r="H9">
-        <v>4.82</v>
+        <v>3.93</v>
       </c>
       <c r="I9">
         <v>1.01</v>
@@ -1782,7 +1782,7 @@
         <v>3.48</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="N9">
         <v>1.88</v>
@@ -1824,28 +1824,28 @@
         <v>2.77</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1865,13 +1865,13 @@
         <v>130</v>
       </c>
       <c r="F10">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="G10">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H10">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="I10">
         <v>1.08</v>
@@ -1886,10 +1886,10 @@
         <v>2.8</v>
       </c>
       <c r="M10">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="N10">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O10">
         <v>1.46</v>
@@ -1969,13 +1969,13 @@
         <v>131</v>
       </c>
       <c r="F11">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="G11">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H11">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="I11">
         <v>1.05</v>
@@ -1990,10 +1990,10 @@
         <v>3.61</v>
       </c>
       <c r="M11">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="N11">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O11">
         <v>1.36</v>
@@ -2032,16 +2032,16 @@
         <v>3.24</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE11">
         <v>1.57</v>
@@ -2053,7 +2053,7 @@
         <v>2.4</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -2073,13 +2073,13 @@
         <v>132</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2094,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -2177,52 +2177,52 @@
         <v>133</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>7.17</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>19.33</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2281,52 +2281,52 @@
         <v>134</v>
       </c>
       <c r="F14">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G14">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H14">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="N14">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q14">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V14">
         <v>1.13</v>
@@ -2344,28 +2344,28 @@
         <v>3.13</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2385,37 +2385,37 @@
         <v>135</v>
       </c>
       <c r="F15">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="G15">
-        <v>3.77</v>
+        <v>3.75</v>
       </c>
       <c r="H15">
-        <v>4.78</v>
+        <v>4.5</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="M15">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="N15">
-        <v>2.11</v>
+        <v>2.04</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="Q15">
         <v>1.8</v>
@@ -2424,13 +2424,13 @@
         <v>1.91</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="V15">
         <v>1.75</v>
@@ -2448,28 +2448,28 @@
         <v>2.89</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2489,43 +2489,43 @@
         <v>136</v>
       </c>
       <c r="F16">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H16">
+        <v>3.25</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.66</v>
+      </c>
+      <c r="N16">
+        <v>2.01</v>
+      </c>
+      <c r="O16">
+        <v>1.36</v>
+      </c>
+      <c r="P16">
         <v>3</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1.75</v>
-      </c>
-      <c r="N16">
-        <v>1.87</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
       <c r="Q16">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2596,10 +2596,10 @@
         <v>2.05</v>
       </c>
       <c r="G17">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I17">
         <v>1.04</v>
@@ -2614,10 +2614,10 @@
         <v>4</v>
       </c>
       <c r="M17">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="N17">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="O17">
         <v>1.33</v>
@@ -2697,13 +2697,13 @@
         <v>138</v>
       </c>
       <c r="F18">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="G18">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H18">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="I18">
         <v>1.04</v>
@@ -2718,10 +2718,10 @@
         <v>3.75</v>
       </c>
       <c r="M18">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="N18">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O18">
         <v>1.34</v>
@@ -2801,13 +2801,13 @@
         <v>139</v>
       </c>
       <c r="F19">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="G19">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H19">
-        <v>4.4</v>
+        <v>4.22</v>
       </c>
       <c r="I19">
         <v>1.05</v>
@@ -2822,10 +2822,10 @@
         <v>3.15</v>
       </c>
       <c r="M19">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="N19">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O19">
         <v>1.4</v>
@@ -2905,13 +2905,13 @@
         <v>140</v>
       </c>
       <c r="F20">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="G20">
-        <v>3.24</v>
+        <v>3.5</v>
       </c>
       <c r="H20">
-        <v>4.36</v>
+        <v>4.5</v>
       </c>
       <c r="I20">
         <v>1.07</v>
@@ -2929,7 +2929,7 @@
         <v>2.05</v>
       </c>
       <c r="N20">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O20">
         <v>1.45</v>
@@ -3009,13 +3009,13 @@
         <v>141</v>
       </c>
       <c r="F21">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="G21">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H21">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <v>1.05</v>
@@ -3030,10 +3030,10 @@
         <v>3.5</v>
       </c>
       <c r="M21">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="N21">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="O21">
         <v>1.36</v>
@@ -3072,13 +3072,13 @@
         <v>3.28</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="AD21">
         <v>1.25</v>
@@ -3116,10 +3116,10 @@
         <v>3.2</v>
       </c>
       <c r="G22">
-        <v>3.13</v>
+        <v>3.1</v>
       </c>
       <c r="H22">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="I22">
         <v>1.1</v>
@@ -3128,10 +3128,10 @@
         <v>7.3</v>
       </c>
       <c r="K22">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="L22">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="M22">
         <v>2.55</v>
@@ -3176,28 +3176,28 @@
         <v>3.37</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -3217,52 +3217,52 @@
         <v>143</v>
       </c>
       <c r="F23">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="G23">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="H23">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="M23">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="N23">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="Q23">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R23">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="V23">
         <v>2.09</v>
@@ -3280,28 +3280,28 @@
         <v>3.15</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AD23">
         <v>0</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="24" spans="1:34">
@@ -3321,13 +3321,13 @@
         <v>144</v>
       </c>
       <c r="F24">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="G24">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>4.7</v>
+        <v>4.58</v>
       </c>
       <c r="I24">
         <v>1.03</v>
@@ -3342,10 +3342,10 @@
         <v>4</v>
       </c>
       <c r="M24">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="N24">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="O24">
         <v>1.31</v>
@@ -3425,13 +3425,13 @@
         <v>145</v>
       </c>
       <c r="F25">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G25">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H25">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="I25">
         <v>1.02</v>
@@ -3446,10 +3446,10 @@
         <v>3.8</v>
       </c>
       <c r="M25">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="N25">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O25">
         <v>1.3</v>
@@ -3592,28 +3592,28 @@
         <v>2.67</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="27" spans="1:34">
@@ -3696,28 +3696,28 @@
         <v>2.76</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="28" spans="1:34">
@@ -3800,28 +3800,28 @@
         <v>3.27</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>5.35</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="29" spans="1:34">
@@ -3904,28 +3904,28 @@
         <v>2.73</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="30" spans="1:34">
@@ -3951,7 +3951,7 @@
         <v>3.1</v>
       </c>
       <c r="H30">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I30">
         <v>1.05</v>
@@ -3966,10 +3966,10 @@
         <v>2.9</v>
       </c>
       <c r="M30">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="N30">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="O30">
         <v>1.42</v>
@@ -4049,13 +4049,13 @@
         <v>151</v>
       </c>
       <c r="F31">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="G31">
-        <v>3.66</v>
+        <v>3.75</v>
       </c>
       <c r="H31">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -4153,13 +4153,13 @@
         <v>152</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G32">
+        <v>3.5</v>
+      </c>
+      <c r="H32">
         <v>3.3</v>
-      </c>
-      <c r="H32">
-        <v>3.25</v>
       </c>
       <c r="I32">
         <v>1.03</v>
@@ -4174,10 +4174,10 @@
         <v>3.87</v>
       </c>
       <c r="M32">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="O32">
         <v>1.35</v>
@@ -4225,19 +4225,19 @@
         <v>0</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:34">
@@ -4257,13 +4257,13 @@
         <v>153</v>
       </c>
       <c r="F33">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G33">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H33">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -4320,13 +4320,13 @@
         <v>3.07</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -4335,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="34" spans="1:34">
@@ -4361,10 +4361,10 @@
         <v>154</v>
       </c>
       <c r="F34">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="G34">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H34">
         <v>6.5</v>
@@ -4382,10 +4382,10 @@
         <v>3.75</v>
       </c>
       <c r="M34">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O34">
         <v>1.33</v>
@@ -4433,7 +4433,7 @@
         <v>4.48</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE34">
         <v>1.32</v>
@@ -4465,13 +4465,13 @@
         <v>155</v>
       </c>
       <c r="F35">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>3.47</v>
+        <v>3.45</v>
       </c>
       <c r="H35">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -4486,10 +4486,10 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="N35">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -4528,25 +4528,25 @@
         <v>3.43</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AD35">
         <v>0</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AH35">
         <v>0</v>
@@ -4569,13 +4569,13 @@
         <v>156</v>
       </c>
       <c r="F36">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G36">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="H36">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I36">
         <v>1.02</v>
@@ -4673,13 +4673,13 @@
         <v>157</v>
       </c>
       <c r="F37">
-        <v>4.15</v>
+        <v>4.5</v>
       </c>
       <c r="G37">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="H37">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="I37">
         <v>1.03</v>
@@ -4694,10 +4694,10 @@
         <v>4</v>
       </c>
       <c r="M37">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N37">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="O37">
         <v>1.28</v>
@@ -4777,13 +4777,13 @@
         <v>158</v>
       </c>
       <c r="F38">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="G38">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="H38">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="I38">
         <v>1.04</v>
@@ -4798,10 +4798,10 @@
         <v>3.8</v>
       </c>
       <c r="M38">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="N38">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="O38">
         <v>1.36</v>
@@ -4881,13 +4881,13 @@
         <v>159</v>
       </c>
       <c r="F39">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="G39">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>4.25</v>
+        <v>3.6</v>
       </c>
       <c r="I39">
         <v>1.02</v>
@@ -4902,10 +4902,10 @@
         <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N39">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
       <c r="O39">
         <v>1.41</v>
@@ -4985,13 +4985,13 @@
         <v>160</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G40">
         <v>3.1</v>
       </c>
       <c r="H40">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I40">
         <v>1.03</v>
@@ -5006,10 +5006,10 @@
         <v>2.93</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="N40">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="O40">
         <v>1.44</v>
@@ -5048,28 +5048,28 @@
         <v>4.2</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:34">
@@ -5110,10 +5110,10 @@
         <v>2.82</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="N41">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="O41">
         <v>1.47</v>
@@ -5152,28 +5152,28 @@
         <v>1.66</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE41">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF41">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AG41">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH41">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="42" spans="1:34">
@@ -5193,7 +5193,7 @@
         <v>162</v>
       </c>
       <c r="F42">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -5214,10 +5214,10 @@
         <v>2.61</v>
       </c>
       <c r="M42">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="N42">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="O42">
         <v>1.49</v>
@@ -5256,28 +5256,28 @@
         <v>2.55</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE42">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF42">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AG42">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="43" spans="1:34">
@@ -5297,13 +5297,13 @@
         <v>163</v>
       </c>
       <c r="F43">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="G43">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="H43">
-        <v>4.85</v>
+        <v>5.5</v>
       </c>
       <c r="I43">
         <v>1.05</v>
@@ -5318,10 +5318,10 @@
         <v>3.6</v>
       </c>
       <c r="M43">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="N43">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="O43">
         <v>1.4</v>
@@ -5401,13 +5401,13 @@
         <v>164</v>
       </c>
       <c r="F44">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="G44">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="H44">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="I44">
         <v>1.12</v>
@@ -5416,16 +5416,16 @@
         <v>5.5</v>
       </c>
       <c r="K44">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="L44">
         <v>2.35</v>
       </c>
       <c r="M44">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="N44">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="O44">
         <v>1.57</v>
@@ -5505,13 +5505,13 @@
         <v>165</v>
       </c>
       <c r="F45">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H45">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="I45">
         <v>1.07</v>
@@ -5526,10 +5526,10 @@
         <v>3</v>
       </c>
       <c r="M45">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="N45">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="O45">
         <v>1.46</v>
@@ -5609,13 +5609,13 @@
         <v>166</v>
       </c>
       <c r="F46">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="G46">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="H46">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="I46">
         <v>1.07</v>
@@ -5630,10 +5630,10 @@
         <v>2.8</v>
       </c>
       <c r="M46">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="N46">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="O46">
         <v>1.44</v>
@@ -5713,7 +5713,7 @@
         <v>167</v>
       </c>
       <c r="F47">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -5734,10 +5734,10 @@
         <v>2.71</v>
       </c>
       <c r="M47">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="N47">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O47">
         <v>1.49</v>
@@ -5776,28 +5776,28 @@
         <v>1.15</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE47">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF47">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG47">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AH47">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="48" spans="1:34">
@@ -5817,13 +5817,13 @@
         <v>168</v>
       </c>
       <c r="F48">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="G48">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H48">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -5841,7 +5841,7 @@
         <v>2.1</v>
       </c>
       <c r="N48">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -5921,10 +5921,10 @@
         <v>169</v>
       </c>
       <c r="F49">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="G49">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H49">
         <v>2.4</v>
@@ -5942,10 +5942,10 @@
         <v>3.4</v>
       </c>
       <c r="M49">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="N49">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="O49">
         <v>1.39</v>
@@ -6025,13 +6025,13 @@
         <v>170</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G50">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H50">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="I50">
         <v>1.05</v>
@@ -6046,10 +6046,10 @@
         <v>3.5</v>
       </c>
       <c r="M50">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="N50">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="O50">
         <v>1.37</v>
@@ -6129,13 +6129,13 @@
         <v>171</v>
       </c>
       <c r="F51">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="G51">
-        <v>5.75</v>
+        <v>6.75</v>
       </c>
       <c r="H51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I51">
         <v>1.02</v>
@@ -6150,10 +6150,10 @@
         <v>4.35</v>
       </c>
       <c r="M51">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="N51">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O51">
         <v>1.27</v>
@@ -6296,28 +6296,28 @@
         <v>3.05</v>
       </c>
       <c r="AA52">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC52">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AD52">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE52">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AG52">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AH52">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="53" spans="1:34">
@@ -6441,13 +6441,13 @@
         <v>174</v>
       </c>
       <c r="F54">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="G54">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H54">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="I54">
         <v>1.1</v>
@@ -6465,7 +6465,7 @@
         <v>2.25</v>
       </c>
       <c r="N54">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O54">
         <v>1.5</v>
@@ -6504,28 +6504,28 @@
         <v>2.29</v>
       </c>
       <c r="AA54">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="55" spans="1:34">
@@ -6545,13 +6545,13 @@
         <v>175</v>
       </c>
       <c r="F55">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H55">
-        <v>2.87</v>
+        <v>4.4</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -6566,10 +6566,10 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N55">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -6649,13 +6649,13 @@
         <v>176</v>
       </c>
       <c r="F56">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="G56">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H56">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="I56">
         <v>1.01</v>
@@ -6670,10 +6670,10 @@
         <v>3.72</v>
       </c>
       <c r="M56">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="N56">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="O56">
         <v>1.35</v>

--- a/Jogos_do_Dia/2023-03-03_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-03_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1081,10 +1081,10 @@
         <v>2.88</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1185,10 +1185,10 @@
         <v>2.15</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         <v>3.85</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AF3">
         <v>2.05</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -1241,13 +1241,13 @@
         <v>124</v>
       </c>
       <c r="F4">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H4">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="I4">
         <v>1.02</v>
@@ -1262,10 +1262,10 @@
         <v>4.75</v>
       </c>
       <c r="M4">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="N4">
-        <v>2.31</v>
+        <v>2.25</v>
       </c>
       <c r="O4">
         <v>1.28</v>
@@ -1289,10 +1289,10 @@
         <v>1.35</v>
       </c>
       <c r="V4">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="W4">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="X4">
         <v>1.61</v>
@@ -1345,13 +1345,13 @@
         <v>125</v>
       </c>
       <c r="F5">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="G5">
         <v>3.3</v>
       </c>
       <c r="H5">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I5">
         <v>1.03</v>
@@ -1366,10 +1366,10 @@
         <v>4</v>
       </c>
       <c r="M5">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="N5">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O5">
         <v>1.33</v>
@@ -1393,10 +1393,10 @@
         <v>1.85</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>1.93</v>
@@ -1449,13 +1449,13 @@
         <v>126</v>
       </c>
       <c r="F6">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="G6">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H6">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="I6">
         <v>1.07</v>
@@ -1470,10 +1470,10 @@
         <v>2.63</v>
       </c>
       <c r="M6">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="N6">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O6">
         <v>1.51</v>
@@ -1553,13 +1553,13 @@
         <v>127</v>
       </c>
       <c r="F7">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G7">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H7">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="I7">
         <v>1.06</v>
@@ -1761,13 +1761,13 @@
         <v>129</v>
       </c>
       <c r="F9">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="G9">
-        <v>3.5</v>
+        <v>3.48</v>
       </c>
       <c r="H9">
-        <v>3.93</v>
+        <v>4.08</v>
       </c>
       <c r="I9">
         <v>1.01</v>
@@ -1782,10 +1782,10 @@
         <v>3.48</v>
       </c>
       <c r="M9">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="N9">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
         <v>1.37</v>
@@ -1865,13 +1865,13 @@
         <v>130</v>
       </c>
       <c r="F10">
-        <v>2.65</v>
+        <v>2.91</v>
       </c>
       <c r="G10">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="H10">
-        <v>2.65</v>
+        <v>2.49</v>
       </c>
       <c r="I10">
         <v>1.08</v>
@@ -1886,10 +1886,10 @@
         <v>2.8</v>
       </c>
       <c r="M10">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="N10">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="O10">
         <v>1.46</v>
@@ -1969,13 +1969,13 @@
         <v>131</v>
       </c>
       <c r="F11">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="G11">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H11">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I11">
         <v>1.05</v>
@@ -1990,10 +1990,10 @@
         <v>3.61</v>
       </c>
       <c r="M11">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="N11">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="O11">
         <v>1.36</v>
@@ -2073,52 +2073,52 @@
         <v>132</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H12">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="M12">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="N12">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V12">
         <v>2.56</v>
@@ -2136,28 +2136,28 @@
         <v>3.42</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -2177,13 +2177,13 @@
         <v>133</v>
       </c>
       <c r="F13">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="G13">
-        <v>7.17</v>
+        <v>10</v>
       </c>
       <c r="H13">
-        <v>19.33</v>
+        <v>29</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>134</v>
       </c>
       <c r="F14">
-        <v>3.2</v>
+        <v>3.27</v>
       </c>
       <c r="G14">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="I14">
         <v>1.05</v>
@@ -2302,10 +2302,10 @@
         <v>3.6</v>
       </c>
       <c r="M14">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="N14">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="O14">
         <v>1.36</v>
@@ -2347,10 +2347,10 @@
         <v>2.48</v>
       </c>
       <c r="AB14">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AC14">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="AD14">
         <v>1.18</v>
@@ -2359,7 +2359,7 @@
         <v>1.37</v>
       </c>
       <c r="AF14">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AG14">
         <v>2.03</v>
@@ -2385,13 +2385,13 @@
         <v>135</v>
       </c>
       <c r="F15">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="G15">
-        <v>3.75</v>
+        <v>3.97</v>
       </c>
       <c r="H15">
-        <v>4.5</v>
+        <v>4.23</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2406,10 +2406,10 @@
         <v>3.74</v>
       </c>
       <c r="M15">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="N15">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="O15">
         <v>1.33</v>
@@ -2489,13 +2489,13 @@
         <v>136</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="G16">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="H16">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="N16">
-        <v>2.01</v>
+        <v>1.94</v>
       </c>
       <c r="O16">
         <v>1.36</v>
@@ -2522,10 +2522,10 @@
         <v>3</v>
       </c>
       <c r="Q16">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R16">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2593,13 +2593,13 @@
         <v>137</v>
       </c>
       <c r="F17">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H17">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I17">
         <v>1.04</v>
@@ -2614,10 +2614,10 @@
         <v>4</v>
       </c>
       <c r="M17">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="N17">
-        <v>2.16</v>
+        <v>2.25</v>
       </c>
       <c r="O17">
         <v>1.33</v>
@@ -2700,7 +2700,7 @@
         <v>2.7</v>
       </c>
       <c r="G18">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H18">
         <v>2.4</v>
@@ -2718,10 +2718,10 @@
         <v>3.75</v>
       </c>
       <c r="M18">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="N18">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="O18">
         <v>1.34</v>
@@ -2801,13 +2801,13 @@
         <v>139</v>
       </c>
       <c r="F19">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="G19">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H19">
-        <v>4.22</v>
+        <v>4.33</v>
       </c>
       <c r="I19">
         <v>1.05</v>
@@ -2822,10 +2822,10 @@
         <v>3.15</v>
       </c>
       <c r="M19">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="N19">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="O19">
         <v>1.4</v>
@@ -2905,13 +2905,13 @@
         <v>140</v>
       </c>
       <c r="F20">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="G20">
-        <v>3.5</v>
+        <v>3.68</v>
       </c>
       <c r="H20">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="I20">
         <v>1.07</v>
@@ -2926,10 +2926,10 @@
         <v>3.2</v>
       </c>
       <c r="M20">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="N20">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="O20">
         <v>1.45</v>
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -3009,13 +3009,13 @@
         <v>141</v>
       </c>
       <c r="F21">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="G21">
-        <v>3.45</v>
+        <v>3.51</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>3.78</v>
       </c>
       <c r="I21">
         <v>1.05</v>
@@ -3030,10 +3030,10 @@
         <v>3.5</v>
       </c>
       <c r="M21">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="N21">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="O21">
         <v>1.36</v>
@@ -3113,13 +3113,13 @@
         <v>142</v>
       </c>
       <c r="F22">
-        <v>3.2</v>
+        <v>2.93</v>
       </c>
       <c r="G22">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="H22">
-        <v>2.3</v>
+        <v>2.47</v>
       </c>
       <c r="I22">
         <v>1.1</v>
@@ -3134,10 +3134,10 @@
         <v>2.55</v>
       </c>
       <c r="M22">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N22">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="O22">
         <v>1.54</v>
@@ -3217,13 +3217,13 @@
         <v>143</v>
       </c>
       <c r="F23">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="G23">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H23">
-        <v>2.4</v>
+        <v>2.78</v>
       </c>
       <c r="I23">
         <v>1.03</v>
@@ -3238,10 +3238,10 @@
         <v>4.33</v>
       </c>
       <c r="M23">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="N23">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="O23">
         <v>1.28</v>
@@ -3280,16 +3280,16 @@
         <v>3.15</v>
       </c>
       <c r="AA23">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="AB23">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AC23">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE23">
         <v>1.29</v>
@@ -3321,13 +3321,13 @@
         <v>144</v>
       </c>
       <c r="F24">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H24">
-        <v>4.58</v>
+        <v>4.33</v>
       </c>
       <c r="I24">
         <v>1.03</v>
@@ -3342,10 +3342,10 @@
         <v>4</v>
       </c>
       <c r="M24">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="N24">
-        <v>2.08</v>
+        <v>2.13</v>
       </c>
       <c r="O24">
         <v>1.31</v>
@@ -3425,13 +3425,13 @@
         <v>145</v>
       </c>
       <c r="F25">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="G25">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H25">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="I25">
         <v>1.02</v>
@@ -3446,10 +3446,10 @@
         <v>3.8</v>
       </c>
       <c r="M25">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="N25">
-        <v>2.3</v>
+        <v>2.39</v>
       </c>
       <c r="O25">
         <v>1.3</v>
@@ -3945,13 +3945,13 @@
         <v>150</v>
       </c>
       <c r="F30">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G30">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H30">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>1.05</v>
@@ -3966,7 +3966,7 @@
         <v>2.9</v>
       </c>
       <c r="M30">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="N30">
         <v>1.63</v>
@@ -4049,13 +4049,13 @@
         <v>151</v>
       </c>
       <c r="F31">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="G31">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H31">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="N31">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -4153,13 +4153,13 @@
         <v>152</v>
       </c>
       <c r="F32">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>3.5</v>
+        <v>3.63</v>
       </c>
       <c r="H32">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I32">
         <v>1.03</v>
@@ -4174,10 +4174,10 @@
         <v>3.87</v>
       </c>
       <c r="M32">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="N32">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="O32">
         <v>1.35</v>
@@ -4216,13 +4216,13 @@
         <v>3</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="AD32">
         <v>1.22</v>
@@ -4257,37 +4257,37 @@
         <v>153</v>
       </c>
       <c r="F33">
-        <v>2.4</v>
+        <v>2.53</v>
       </c>
       <c r="G33">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H33">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M33">
         <v>1.53</v>
       </c>
       <c r="N33">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Q33">
         <v>1.5</v>
@@ -4296,13 +4296,13 @@
         <v>2.5</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V33">
         <v>1</v>
@@ -4320,19 +4320,19 @@
         <v>3.07</v>
       </c>
       <c r="AA33">
-        <v>2.43</v>
+        <v>2.32</v>
       </c>
       <c r="AB33">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AC33">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF33">
         <v>1.62</v>
@@ -4361,13 +4361,13 @@
         <v>154</v>
       </c>
       <c r="F34">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="G34">
-        <v>4.2</v>
+        <v>4.29</v>
       </c>
       <c r="H34">
-        <v>6.5</v>
+        <v>7.36</v>
       </c>
       <c r="I34">
         <v>1.05</v>
@@ -4382,10 +4382,10 @@
         <v>3.75</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="N34">
-        <v>1.85</v>
+        <v>2.11</v>
       </c>
       <c r="O34">
         <v>1.33</v>
@@ -4465,52 +4465,52 @@
         <v>155</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G35">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="H35">
-        <v>3.25</v>
+        <v>3.43</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="N35">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="Q35">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V35">
         <v>1.63</v>
@@ -4528,28 +4528,28 @@
         <v>3.43</v>
       </c>
       <c r="AA35">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="AB35">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="AC35">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE35">
         <v>1.51</v>
       </c>
       <c r="AF35">
-        <v>1.84</v>
+        <v>2.25</v>
       </c>
       <c r="AG35">
         <v>2.28</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:34">
@@ -4569,10 +4569,10 @@
         <v>156</v>
       </c>
       <c r="F36">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="G36">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H36">
         <v>2.8</v>
@@ -4593,7 +4593,7 @@
         <v>1.61</v>
       </c>
       <c r="N36">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="O36">
         <v>1.29</v>
@@ -4673,13 +4673,13 @@
         <v>157</v>
       </c>
       <c r="F37">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="G37">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H37">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="I37">
         <v>1.03</v>
@@ -4694,10 +4694,10 @@
         <v>4</v>
       </c>
       <c r="M37">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="N37">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="O37">
         <v>1.28</v>
@@ -4780,10 +4780,10 @@
         <v>1.6</v>
       </c>
       <c r="G38">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I38">
         <v>1.04</v>
@@ -4798,10 +4798,10 @@
         <v>3.8</v>
       </c>
       <c r="M38">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="N38">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="O38">
         <v>1.36</v>
@@ -4881,13 +4881,13 @@
         <v>159</v>
       </c>
       <c r="F39">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H39">
-        <v>3.6</v>
+        <v>4.25</v>
       </c>
       <c r="I39">
         <v>1.02</v>
@@ -4902,10 +4902,10 @@
         <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N39">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="O39">
         <v>1.41</v>
@@ -4985,13 +4985,13 @@
         <v>160</v>
       </c>
       <c r="F40">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G40">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H40">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="I40">
         <v>1.03</v>
@@ -5006,10 +5006,10 @@
         <v>2.93</v>
       </c>
       <c r="M40">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="N40">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="O40">
         <v>1.44</v>
@@ -5089,13 +5089,13 @@
         <v>161</v>
       </c>
       <c r="F41">
-        <v>2.45</v>
+        <v>2.66</v>
       </c>
       <c r="G41">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H41">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="I41">
         <v>1.04</v>
@@ -5110,10 +5110,10 @@
         <v>2.82</v>
       </c>
       <c r="M41">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="N41">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="O41">
         <v>1.47</v>
@@ -5193,13 +5193,13 @@
         <v>162</v>
       </c>
       <c r="F42">
-        <v>2.3</v>
+        <v>2.47</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="I42">
         <v>1.05</v>
@@ -5208,16 +5208,16 @@
         <v>7</v>
       </c>
       <c r="K42">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="L42">
-        <v>2.61</v>
+        <v>2.5</v>
       </c>
       <c r="M42">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="N42">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="O42">
         <v>1.49</v>
@@ -5297,13 +5297,13 @@
         <v>163</v>
       </c>
       <c r="F43">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="G43">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H43">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I43">
         <v>1.05</v>
@@ -5318,10 +5318,10 @@
         <v>3.6</v>
       </c>
       <c r="M43">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="N43">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="O43">
         <v>1.4</v>
@@ -5401,13 +5401,13 @@
         <v>164</v>
       </c>
       <c r="F44">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="G44">
+        <v>2.9</v>
+      </c>
+      <c r="H44">
         <v>2.75</v>
-      </c>
-      <c r="H44">
-        <v>2.6</v>
       </c>
       <c r="I44">
         <v>1.12</v>
@@ -5419,13 +5419,13 @@
         <v>1.55</v>
       </c>
       <c r="L44">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="M44">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="N44">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="O44">
         <v>1.57</v>
@@ -5508,7 +5508,7 @@
         <v>3</v>
       </c>
       <c r="G45">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H45">
         <v>2.38</v>
@@ -5526,10 +5526,10 @@
         <v>3</v>
       </c>
       <c r="M45">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="N45">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="O45">
         <v>1.46</v>
@@ -5609,13 +5609,13 @@
         <v>166</v>
       </c>
       <c r="F46">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="G46">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H46">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I46">
         <v>1.07</v>
@@ -5630,10 +5630,10 @@
         <v>2.8</v>
       </c>
       <c r="M46">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N46">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="O46">
         <v>1.44</v>
@@ -5713,13 +5713,13 @@
         <v>167</v>
       </c>
       <c r="F47">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="I47">
         <v>1.05</v>
@@ -5734,7 +5734,7 @@
         <v>2.71</v>
       </c>
       <c r="M47">
-        <v>2.19</v>
+        <v>2.25</v>
       </c>
       <c r="N47">
         <v>1.6</v>
@@ -5817,13 +5817,13 @@
         <v>168</v>
       </c>
       <c r="F48">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="G48">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="H48">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -5838,10 +5838,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="N48">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -5921,13 +5921,13 @@
         <v>169</v>
       </c>
       <c r="F49">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="G49">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H49">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="I49">
         <v>1.06</v>
@@ -5942,10 +5942,10 @@
         <v>3.4</v>
       </c>
       <c r="M49">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="N49">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="O49">
         <v>1.39</v>
@@ -6025,13 +6025,13 @@
         <v>170</v>
       </c>
       <c r="F50">
-        <v>1.75</v>
+        <v>2.01</v>
       </c>
       <c r="G50">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H50">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="I50">
         <v>1.05</v>
@@ -6046,10 +6046,10 @@
         <v>3.5</v>
       </c>
       <c r="M50">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="O50">
         <v>1.37</v>
@@ -6129,13 +6129,13 @@
         <v>171</v>
       </c>
       <c r="F51">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="G51">
-        <v>6.75</v>
+        <v>5.5</v>
       </c>
       <c r="H51">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I51">
         <v>1.02</v>
@@ -6150,7 +6150,7 @@
         <v>4.35</v>
       </c>
       <c r="M51">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="N51">
         <v>2.2</v>
@@ -6441,13 +6441,13 @@
         <v>174</v>
       </c>
       <c r="F54">
-        <v>3.6</v>
+        <v>2.91</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H54">
-        <v>2.05</v>
+        <v>2.21</v>
       </c>
       <c r="I54">
         <v>1.1</v>
@@ -6465,7 +6465,7 @@
         <v>2.25</v>
       </c>
       <c r="N54">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O54">
         <v>1.5</v>
@@ -6545,13 +6545,13 @@
         <v>175</v>
       </c>
       <c r="F55">
-        <v>1.75</v>
+        <v>2.28</v>
       </c>
       <c r="G55">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H55">
-        <v>4.4</v>
+        <v>2.77</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -6569,7 +6569,7 @@
         <v>2.05</v>
       </c>
       <c r="N55">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -6649,13 +6649,13 @@
         <v>176</v>
       </c>
       <c r="F56">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="G56">
-        <v>3.5</v>
+        <v>3.47</v>
       </c>
       <c r="H56">
-        <v>3.8</v>
+        <v>2.33</v>
       </c>
       <c r="I56">
         <v>1.01</v>
@@ -6670,10 +6670,10 @@
         <v>3.72</v>
       </c>
       <c r="M56">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="N56">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="O56">
         <v>1.35</v>
